--- a/Documents/Resource Mechanics.xlsx
+++ b/Documents/Resource Mechanics.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eltim\OneDrive\Documents\Excel Documents\Game Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{059D2C04-1A7E-4DB4-B3C8-9194BD3516F1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B51EB79A-AAB4-4F54-B480-093CB0AE08D6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{78FCE85E-327F-4674-8BE6-8DAD0DB3ABB5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{78FCE85E-327F-4674-8BE6-8DAD0DB3ABB5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="124">
   <si>
     <t>FRUITS</t>
   </si>
@@ -212,12 +212,6 @@
     <t>N/A</t>
   </si>
   <si>
-    <t># OF SAME/DIFFERENT FOODS (in same category)</t>
-  </si>
-  <si>
-    <t># OF DIFFERENT FOODS (in different category)</t>
-  </si>
-  <si>
     <t>CALCULATIONS</t>
   </si>
   <si>
@@ -396,6 +390,21 @@
   </si>
   <si>
     <t>Sweet Smoothie</t>
+  </si>
+  <si>
+    <t># OF SAME/DIFFERENT FOODS (in same category) Ex: Strawberry, Banana, Orange, etc.</t>
+  </si>
+  <si>
+    <t># OF DIFFERENT FOODS (in different category) Ex: Strawberry, Cheese, Brocolli</t>
+  </si>
+  <si>
+    <t>*SPECIAL NOTE*</t>
+  </si>
+  <si>
+    <t>If a liquid is obtained, it will bypass the check for bonuses and maluses</t>
+  </si>
+  <si>
+    <t>and implement its own special boost calculation.</t>
   </si>
 </sst>
 </file>
@@ -775,10 +784,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F77C519-447A-47CD-BBC8-9A4C48D8F10A}">
-  <dimension ref="A1:K59"/>
+  <dimension ref="A1:O59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A53" sqref="A53:E59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -791,38 +800,38 @@
     <col min="11" max="11" width="45.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B1" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>79</v>
-      </c>
       <c r="F1" s="5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3">
@@ -837,8 +846,13 @@
       <c r="F3" s="3">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
@@ -855,98 +869,104 @@
       <c r="F4" s="3">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D5" s="3">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>58</v>
       </c>
       <c r="F5" s="3">
+        <v>30</v>
+      </c>
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>7</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D6" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>58</v>
       </c>
       <c r="F6" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="H6" s="3"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D7" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>58</v>
       </c>
       <c r="F7" s="3">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="H7" s="3"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D8" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>58</v>
       </c>
       <c r="F8" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="H8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>58</v>
       </c>
       <c r="F9" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="H9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>11</v>
       </c>
@@ -963,28 +983,30 @@
       <c r="F10" s="3">
         <v>14</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3">
+        <v>10</v>
+      </c>
+      <c r="D11" s="3">
         <v>5</v>
       </c>
-      <c r="D11" s="3">
-        <v>2</v>
-      </c>
       <c r="E11" s="3" t="s">
         <v>58</v>
       </c>
       <c r="F11" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="H11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3">
@@ -999,28 +1021,30 @@
       <c r="F12" s="3">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D13" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>58</v>
       </c>
       <c r="F13" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="H13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3">
@@ -1035,8 +1059,9 @@
       <c r="F14" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="H14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A15" s="3" t="s">
         <v>15</v>
       </c>
@@ -1054,30 +1079,28 @@
         <v>30</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D16" s="3">
-        <v>7</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>58</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="E16" s="3"/>
       <c r="F16" s="3">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3">
@@ -1093,190 +1116,199 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3" t="s">
         <v>58</v>
       </c>
       <c r="D20" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E20" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F20" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="H20" s="3"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3" t="s">
         <v>58</v>
       </c>
       <c r="D21" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E21" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F21" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="H21" s="3"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3" t="s">
         <v>58</v>
       </c>
       <c r="D22" s="3">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E22" s="3">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F22" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="H22" s="3"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="3" t="s">
         <v>58</v>
       </c>
       <c r="D23" s="3">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E23" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F23" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="H23" s="3"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="3" t="s">
         <v>58</v>
       </c>
       <c r="D24" s="3">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E24" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F24" s="3">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="H24" s="3"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B25" s="3"/>
       <c r="C25" s="3" t="s">
         <v>58</v>
       </c>
       <c r="D25" s="3">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E25" s="3">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F25" s="3">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="H25" s="3"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B26" s="3"/>
       <c r="C26" s="3" t="s">
         <v>58</v>
       </c>
       <c r="D26" s="3">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E26" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F26" s="3">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="H26" s="3"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B27" s="3"/>
       <c r="C27" s="3" t="s">
         <v>58</v>
       </c>
       <c r="D27" s="3">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E27" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F27" s="3">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="H27" s="3"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B28" s="3"/>
       <c r="C28" s="3" t="s">
         <v>58</v>
       </c>
       <c r="D28" s="3">
+        <v>5</v>
+      </c>
+      <c r="E28" s="3">
+        <v>2</v>
+      </c>
+      <c r="F28" s="3">
         <v>10</v>
       </c>
-      <c r="E28" s="3">
-        <v>5</v>
-      </c>
-      <c r="F28" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H28" s="3"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="B29" s="3"/>
       <c r="C29" s="3" t="s">
@@ -1291,371 +1323,391 @@
       <c r="F29" s="3">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H29" s="3"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B30" s="3"/>
       <c r="C30" s="3" t="s">
         <v>58</v>
       </c>
       <c r="D30" s="3">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="E30" s="3">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F30" s="3">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+      <c r="H30" s="3"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3" t="s">
         <v>58</v>
       </c>
       <c r="D31" s="3">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E31" s="3">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F31" s="3">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="H31" s="3"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B32" s="3"/>
       <c r="C32" s="3" t="s">
         <v>58</v>
       </c>
       <c r="D32" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E32" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="H32" s="3"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B33" s="3"/>
       <c r="C33" s="3" t="s">
         <v>58</v>
       </c>
       <c r="D33" s="3">
+        <v>10</v>
+      </c>
+      <c r="E33" s="3">
         <v>5</v>
       </c>
-      <c r="E33" s="3">
-        <v>2</v>
-      </c>
       <c r="F33" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="H33" s="3"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B34" s="3"/>
       <c r="C34" s="3" t="s">
         <v>58</v>
       </c>
       <c r="D34" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E34" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="H34" s="3"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="B37" s="3"/>
       <c r="C37" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>58</v>
       </c>
       <c r="E37" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F37" s="3">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="H37" s="3"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="B38" s="3"/>
       <c r="C38" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>58</v>
       </c>
       <c r="E38" s="3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F38" s="3">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="H38" s="3"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="B39" s="3"/>
       <c r="C39" s="3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>58</v>
       </c>
       <c r="E39" s="3">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F39" s="3">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="H39" s="3"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B40" s="3"/>
       <c r="C40" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>58</v>
       </c>
       <c r="E40" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F40" s="3">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="H40" s="3"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B41" s="3"/>
       <c r="C41" s="3">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>58</v>
       </c>
       <c r="E41" s="3">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="F41" s="3">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="H41" s="3"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B42" s="3"/>
       <c r="C42" s="3">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>58</v>
       </c>
       <c r="E42" s="3">
+        <v>5</v>
+      </c>
+      <c r="F42" s="3">
         <v>15</v>
       </c>
-      <c r="F42" s="3">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H42" s="3"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B43" s="3"/>
       <c r="C43" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>58</v>
       </c>
       <c r="E43" s="3">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F43" s="3">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="H43" s="3"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B44" s="3"/>
       <c r="C44" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>58</v>
       </c>
       <c r="E44" s="3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F44" s="3">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="H44" s="3"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B45" s="3"/>
       <c r="C45" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>58</v>
       </c>
       <c r="E45" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F45" s="3">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="H45" s="3"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B46" s="3"/>
       <c r="C46" s="3">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>58</v>
       </c>
       <c r="E46" s="3">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="F46" s="3">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+      <c r="H46" s="3"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B47" s="3"/>
       <c r="C47" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>58</v>
       </c>
       <c r="E47" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F47" s="3">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="H47" s="3"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B48" s="3"/>
       <c r="C48" s="3">
+        <v>5</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E48" s="3">
         <v>10</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E48" s="3">
-        <v>20</v>
-      </c>
       <c r="F48" s="3">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="H48" s="3"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B49" s="3"/>
       <c r="C49" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>58</v>
       </c>
       <c r="E49" s="3">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F49" s="3">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="H49" s="3"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B50" s="3"/>
       <c r="C50" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D50" s="3" t="s">
         <v>58</v>
       </c>
       <c r="E50" s="3">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F50" s="3">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="H50" s="3"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="B51" s="3"/>
       <c r="C51" s="3">
@@ -1670,120 +1722,34 @@
       <c r="F51" s="3">
         <v>15</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H51" s="3"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C53" s="3"/>
-      <c r="D53" s="3"/>
-      <c r="E53" s="3"/>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F53" s="3"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B54" s="3"/>
-      <c r="C54" s="4">
-        <v>2</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>58</v>
-      </c>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F54" s="3"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B55" s="3"/>
-      <c r="C55" s="4">
-        <v>1.25</v>
-      </c>
-      <c r="D55" s="4">
-        <v>1.25</v>
-      </c>
-      <c r="E55" s="4">
-        <v>1.25</v>
-      </c>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F55" s="3"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B56" s="3"/>
-      <c r="C56" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D56" s="4">
-        <v>2</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>58</v>
-      </c>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F56" s="3"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B57" s="3"/>
-      <c r="C57" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E57" s="4">
-        <v>2</v>
-      </c>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F57" s="3"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B58" s="3"/>
-      <c r="C58" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D58" s="4">
-        <v>1.5</v>
-      </c>
-      <c r="E58" s="4">
-        <v>1.5</v>
-      </c>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F58" s="3"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B59" s="3"/>
-      <c r="C59" s="4">
-        <v>1.5</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>58</v>
-      </c>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F59" s="3"/>
     </row>
   </sheetData>
@@ -1793,10 +1759,324 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74D188C5-506D-4C20-A13E-91CE9F2EF8CD}">
+  <dimension ref="A1:F41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="60.85546875" customWidth="1"/>
+    <col min="2" max="2" width="24.140625" customWidth="1"/>
+    <col min="3" max="3" width="25.140625" customWidth="1"/>
+    <col min="4" max="4" width="29.7109375" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1.75</v>
+      </c>
+      <c r="D4" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>1</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>2</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>3</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D25" t="s">
+        <v>79</v>
+      </c>
+      <c r="E25" t="s">
+        <v>113</v>
+      </c>
+      <c r="F25" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B26" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B27" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B28" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C28" s="3"/>
+      <c r="D28" s="4">
+        <v>2</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B29" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E29" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="F29" s="4">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B30" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E30" s="4">
+        <v>2</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B31" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C31" s="3"/>
+      <c r="D31" s="4">
+        <v>1.25</v>
+      </c>
+      <c r="E31" s="4">
+        <v>1.25</v>
+      </c>
+      <c r="F31" s="4">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B32" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F32" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A37" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>123</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE7DC346-06FB-4DE7-B8FF-DACA20AFB5F2}">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
@@ -1815,486 +2095,195 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>84</v>
-      </c>
       <c r="E1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E2" s="2">
         <v>5</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D3" t="s">
         <v>87</v>
       </c>
-      <c r="C3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D3" t="s">
-        <v>89</v>
-      </c>
       <c r="E3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B6" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C6" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B8" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D8" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B9" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C9" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B10" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C10" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K10" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B11" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C11" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D11" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K11" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74D188C5-506D-4C20-A13E-91CE9F2EF8CD}">
-  <dimension ref="A1:F37"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="60.85546875" customWidth="1"/>
-    <col min="2" max="2" width="24.140625" customWidth="1"/>
-    <col min="3" max="3" width="25.140625" customWidth="1"/>
-    <col min="4" max="4" width="29.7109375" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" customWidth="1"/>
-    <col min="6" max="6" width="18.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4">
-        <v>1</v>
-      </c>
-      <c r="C3" s="4">
-        <v>1.5</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4">
-        <v>1</v>
-      </c>
-      <c r="C4" s="4">
-        <v>1.75</v>
-      </c>
-      <c r="D4" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
-        <v>1</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <v>2</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C8" s="4">
-        <v>0.75</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
-        <v>3</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D9" s="4">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D25" t="s">
-        <v>81</v>
-      </c>
-      <c r="E25" t="s">
-        <v>115</v>
-      </c>
-      <c r="F25" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B27" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C27" s="3"/>
-      <c r="D27" s="4">
-        <v>2</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="F27" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B28" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C28" s="3"/>
-      <c r="D28" s="4">
-        <v>1.25</v>
-      </c>
-      <c r="E28" s="4">
-        <v>1.25</v>
-      </c>
-      <c r="F28" s="4">
-        <v>1.25</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B29" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E29" s="4">
-        <v>2</v>
-      </c>
-      <c r="F29" s="4">
-        <v>1.75</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B30" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C30" s="3"/>
-      <c r="D30" s="4">
-        <v>1.5</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="F30" s="4">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B31" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E31" s="4">
-        <v>1.5</v>
-      </c>
-      <c r="F31" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-    </row>
-    <row r="37" spans="1:1" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A37" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
 </file>